--- a/Wymagania.xlsx
+++ b/Wymagania.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA04292-DA99-4433-A063-4BF1BC4E477C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D2E6A60-9513-422D-9639-114A7484F4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Wymagania funkcjonalne</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>System musi zostać zrealizowany w architekturze klient-serwer. Warstwa serwerowa (backend) ma być oparta o technologię Node.js, natomiast dane muszą być składowane w relacyjnej bazie danych MySQL.</t>
+  </si>
+  <si>
+    <t>W.N-6</t>
+  </si>
+  <si>
+    <t>W trakcie rejestracji klienta oraz logowania, jego dane mają być przekazywane w połączeniu zapewniającym bezpieczeństwo chronionych informacji osobistych. Hasło służące do logowania do systemu musi być przechowywane w bazie danych w formie zahaszowanej.</t>
+  </si>
+  <si>
+    <t>W.N-7</t>
+  </si>
+  <si>
+    <t>Podając dane w trakcie rejestracji klient musi wyrazić zgodę na przetwarzanie jego danych osobowych. System musi przestrzegać ograniczeń i wymogów narzucanych przez przepisy o ochronie danych osobowych (RODO).</t>
   </si>
 </sst>
 </file>
@@ -208,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,6 +234,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,14 +585,14 @@
     <col min="3" max="3" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="59.25" customHeight="1">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" ht="59.25" customHeight="1">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -588,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="59.25" customHeight="1">
+    <row r="3" spans="1:3" ht="60.75" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -599,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="59.25" customHeight="1">
+    <row r="4" spans="1:3" ht="60.75" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -610,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="59.25" customHeight="1">
+    <row r="5" spans="1:3" ht="60.75" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -621,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="59.25" customHeight="1">
+    <row r="6" spans="1:3" ht="60.75" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -632,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="59.25" customHeight="1">
+    <row r="7" spans="1:3" ht="60.75" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -643,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="59.25" customHeight="1">
+    <row r="8" spans="1:3" ht="60.75" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -654,7 +669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="59.25" customHeight="1">
+    <row r="9" spans="1:3" ht="60.75" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -665,15 +680,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.25" customHeight="1"/>
-    <row r="11" spans="1:3" ht="59.25" customHeight="1">
+    <row r="10" spans="1:3" ht="60.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="17.25" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" ht="59.25" customHeight="1">
+    <row r="12" spans="1:3" ht="17.25" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -684,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="59.25" customHeight="1">
+    <row r="13" spans="1:3" ht="60.75" customHeight="1">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -695,7 +710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="59.25" customHeight="1">
+    <row r="14" spans="1:3" ht="60.75" customHeight="1">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -706,7 +721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="59.25" customHeight="1">
+    <row r="15" spans="1:3" ht="60.75" customHeight="1">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -717,7 +732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="59.25" customHeight="1">
+    <row r="16" spans="1:3" ht="60.75" customHeight="1">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -728,7 +743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="59.25" customHeight="1">
+    <row r="17" spans="1:3" ht="60.75" customHeight="1">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -739,8 +754,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="27.75" customHeight="1"/>
-    <row r="19" spans="1:3" ht="27.75" customHeight="1"/>
+    <row r="18" spans="1:3" ht="60.75" customHeight="1">
+      <c r="A18" s="4">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60.75" customHeight="1">
+      <c r="A19" s="4">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="27.75" customHeight="1"/>
     <row r="21" spans="1:3" ht="27.75" customHeight="1"/>
     <row r="22" spans="1:3" ht="27.75" customHeight="1"/>
